--- a/biology/Zoologie/Gymnogène_de_Madagascar/Gymnogène_de_Madagascar.xlsx
+++ b/biology/Zoologie/Gymnogène_de_Madagascar/Gymnogène_de_Madagascar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gymnog%C3%A8ne_de_Madagascar</t>
+          <t>Gymnogène_de_Madagascar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyboroides radiatus
 Le Gymnogène de Madagascar (Polyboroides radiatus) ou Polyboroide rayé, est une espèce d'oiseaux appartenant au groupe des rapaces diurnes et à la famille des Accipitridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gymnog%C3%A8ne_de_Madagascar</t>
+          <t>Gymnogène_de_Madagascar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 68 cm. Il ne présente pas de dimorphisme sexuel.
 L'adulte a la tête gris cendré. Les cires sont roses ou jaunes. Le bec est noir. Les iris sont brun sombre.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gymnog%C3%A8ne_de_Madagascar</t>
+          <t>Gymnogène_de_Madagascar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gymnogène de Madagascar est relativement discret. Il vit le plus souvent seul ou en couple. Il passe de longs moments immobile dans l'épaisseur d'un arbre en lisière forestière.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gymnog%C3%A8ne_de_Madagascar</t>
+          <t>Gymnogène_de_Madagascar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des espèces d'oiseaux de Madagascar</t>
         </is>
